--- a/UpcomingEvents.xlsx
+++ b/UpcomingEvents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kluthria/Projects/Gaurav/AutomatedHGBC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46673065-D50B-C741-9378-77B9683A9EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452466E5-7C50-2244-8622-88C2E43710DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{325CD728-A27A-3842-9E48-1023FEC86821}"/>
+    <workbookView xWindow="4620" yWindow="460" windowWidth="17520" windowHeight="20080" xr2:uid="{325CD728-A27A-3842-9E48-1023FEC86821}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -56,21 +56,6 @@
     <t>Type (CC = Case Competition, VC, JC, ES, FI)</t>
   </si>
   <si>
-    <t>The Yard Ventures Site Visit</t>
-  </si>
-  <si>
-    <t>November 26, 2019 @ 5 PM</t>
-  </si>
-  <si>
-    <t>random address</t>
-  </si>
-  <si>
-    <t>What Is The Yard Ventures?</t>
-  </si>
-  <si>
-    <t>asdfasd What Is The Yard Ventures?</t>
-  </si>
-  <si>
     <t>2020_03_9-10_Site_Visits/Newpath.png</t>
   </si>
   <si>
@@ -87,13 +72,338 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>55 Court St 2nd Floor Boston, MA 02203</t>
+  </si>
+  <si>
+    <t>Mar. 9, 2020 4-6pm</t>
+  </si>
+  <si>
+    <t>Venture Capital Site Visit: Newpath Partners</t>
+  </si>
+  <si>
+    <t>... Read More</t>
+  </si>
+  <si>
+    <t>One Way invest in tech-enabled businesses set up by immigrant founders. Current areas of interest include: logistics, mobility, fintech, proptech, machine vision and speech, robotics, outer space and frontier tech. &lt;a href="https://docs.google.com/forms/d/e/1FAIpQLSc_brW_YzbP32q0OZ6gt_0CooIp2LlR1ThmUVWJF9bB8GDaGg/closedform"&gt;Register Here&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Mar. 12, 2020 6-8pm</t>
+  </si>
+  <si>
+    <t>Harvard Main Campus</t>
+  </si>
+  <si>
+    <t>Peter Marber, PhD, is a Wall Street veteran, thought leader and an award-winning money manager ... Read More</t>
+  </si>
+  <si>
+    <t>Newpath Partners is a life science investment fund who work directly with academics, founders and investors to build and fund businesses in a variety of Biotech applications. &lt;a href="https://docs.google.com/forms/d/e/1FAIpQLSf8Kd6Ts_IFurArt626TGUSZqirTvLKp9OjHtHT4OK5k4vaKA/closedform"&gt;Register Here&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>2020_03_9-10_Site_Visits/One%20way.png</t>
+  </si>
+  <si>
+    <t>Business Case Journal Club: Brand Repositioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">... Read More </t>
+  </si>
+  <si>
+    <t>2020_03_16_Brand_Repo/Brand_Repo_Thumbnail.png</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>Date: TDB</t>
+  </si>
+  <si>
+    <t>Finance &amp; Investment Personal Finance Part III: Stock Investing</t>
+  </si>
+  <si>
+    <t>2020_03_16_Brand_Repo/unnamed.png</t>
+  </si>
+  <si>
+    <t>Random_Thumbnails/5.jpg</t>
+  </si>
+  <si>
+    <t>Finance &amp; Investment Careers in Finance Part IV: Asset Management</t>
+  </si>
+  <si>
+    <t>2020_03_12_Hedge_Funds/F&amp;I%20careers%20in%20finance%20hedge%20funds.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Random_Thumbnails/20191001_173141.jpg</t>
+  </si>
+  <si>
+    <t>Finance &amp; Investment Careers in Finance Part IV: Startup Finance</t>
+  </si>
+  <si>
+    <t>Random_Thumbnails/Finance-5.jpg</t>
+  </si>
+  <si>
+    <t>Venture Capital Site Visit: One Way Ventures</t>
+  </si>
+  <si>
+    <t>Mar. 16, 2020 6-8pm</t>
+  </si>
+  <si>
+    <t>Mar. 10, 2020 6-8pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance &amp; Investment Careers in Finance Part III: Hedge Funds </t>
+  </si>
+  <si>
+    <t>2020_03_12_Hedge_Funds/Hedge_Funds_Thumbnail.png</t>
+  </si>
+  <si>
+    <t>Careers in Finance Part II: The Big Four Accounting Firms</t>
+  </si>
+  <si>
+    <t>Feb. 19, 2020, 7-8pm</t>
+  </si>
+  <si>
+    <t>Explore a career in management consulting, audit, corporate finance, assurance, and taxation . . . Read More</t>
+  </si>
+  <si>
+    <t>2020_02_19_FI101/F&amp;I%20poster_icon.jpeg</t>
+  </si>
+  <si>
+    <t>2020_02_19_FI101/F&amp;I%20poster_short.jpg</t>
+  </si>
+  <si>
+    <t>Personal Finance Part I: Portfolio Balance and Risk Management</t>
+  </si>
+  <si>
+    <t>Jan. 30, 2020, 6-8pm</t>
+  </si>
+  <si>
+    <t>Learn how to manage your money by creating a sound investment strategy that balances risk and return . . . Read More</t>
+  </si>
+  <si>
+    <t>2020_01_30_FI101/FI101_thumbnail.png</t>
+  </si>
+  <si>
+    <t>Site Visit: First Star Ventures</t>
+  </si>
+  <si>
+    <t>Dec. 3, 2019, 4:30pm</t>
+  </si>
+  <si>
+    <t>Cambridge, MA</t>
+  </si>
+  <si>
+    <t>First Star Ventures is a Cambridge-based VC fund investing in cutting-edge startups in tech and biotech . . . Read More</t>
+  </si>
+  <si>
+    <t>2019_12_03_First_Star_Ventures_Site_Visit/cover_img.png</t>
+  </si>
+  <si>
+    <t>Site Visit: The Yard Ventures</t>
+  </si>
+  <si>
+    <t>Nov. 26, 2019, 5pm</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>Office Visit to the Yard Ventures . . . Read More</t>
+  </si>
+  <si>
+    <t>2019_11_26_yard_ventures_site_visit/the_yard_ventures_cover.png</t>
+  </si>
+  <si>
+    <t>Careers in Finance Part I: Investment Banking</t>
+  </si>
+  <si>
+    <t>Nov. 12, 2019, 6-8pm</t>
+  </si>
+  <si>
+    <t>Leverage your (non-business) PhD degree and/or scientific backgroud for a career in finance . . . Read More</t>
+  </si>
+  <si>
+    <t>2019_11_20_Investment_Banking/F&amp;I%20flyer%20for%202019_20.png</t>
+  </si>
+  <si>
+    <t>Trinity Info Session</t>
+  </si>
+  <si>
+    <t>Longwood Avenue</t>
+  </si>
+  <si>
+    <t>2019_11_12_Trinity_info_session/trinity_info_session.jpg</t>
+  </si>
+  <si>
+    <t>Thinking of starting your own venture but unsure where to start? . . . Read More</t>
+  </si>
+  <si>
+    <t>Entreprenuership Series: #1 Early Stage Ventures</t>
+  </si>
+  <si>
+    <t>2019_11_05_Entrepreneurship_Panel/entreprenuership_series.png</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Real Estate Discussion Panel</t>
+  </si>
+  <si>
+    <t>Nov. 5, 2019, 6-8pm</t>
+  </si>
+  <si>
+    <t>Oct. 22, 2019, 6-8p</t>
+  </si>
+  <si>
+    <t>Learn about real estate investment and development . . . Read More</t>
+  </si>
+  <si>
+    <t>2019_10_22_Real_Estate_Panel/real_estate_cover.jpg</t>
+  </si>
+  <si>
+    <t>Bolt Venture Capital Site Visit</t>
+  </si>
+  <si>
+    <t>Oct. 1, 2019, 5-7pm</t>
+  </si>
+  <si>
+    <t>Bolt Boston Office</t>
+  </si>
+  <si>
+    <t>2019_10_01_Bolt_VC/bolt_vc.png</t>
+  </si>
+  <si>
+    <t>TMEC Room 227, Harvard Medical School</t>
+  </si>
+  <si>
+    <t>May 2, 2019, 5-7pm</t>
+  </si>
+  <si>
+    <t>A Conversation with Dr. Kleiman, Founder of Cures Within Reach for Cancer</t>
+  </si>
+  <si>
+    <t>A discussion with Dr. Laura Kleiman on using big data for drug repurposing . . . Read more</t>
+  </si>
+  <si>
+    <t>2019_05_02_Cures_Within_Reach/CWR+for+Cancer+logo.jpg</t>
+  </si>
+  <si>
+    <t>April 16, 2019, 6-8pm</t>
+  </si>
+  <si>
+    <t>Harvard University CGIS Knafel Building K050</t>
+  </si>
+  <si>
+    <t>How to Leverage Your PhD in Finance?</t>
+  </si>
+  <si>
+    <t>A workshop on quantitative analysis in finance . . . Read more</t>
+  </si>
+  <si>
+    <t>2019_04_16_Leverage_PhD_Finance/Quantitative_Finance_Wkshp.jpg</t>
+  </si>
+  <si>
+    <t>2019 Jargon Jungle Workshop</t>
+  </si>
+  <si>
+    <t>An introduction to financial asset classes and vocabulary of the financial industry . . . Read more</t>
+  </si>
+  <si>
+    <t>March 26, 2019, 6-8pm</t>
+  </si>
+  <si>
+    <t>2019_03_26_Jargon_Jungle/jargon_jungle_1_cover.jpg</t>
+  </si>
+  <si>
+    <t>Science Center, Lecture Hall E, Harvard University</t>
+  </si>
+  <si>
+    <t>Dec. 1, 2018, 3:30-5:30pm</t>
+  </si>
+  <si>
+    <t>A discussion with three companies on using technology to improve primary education . . . Read more</t>
+  </si>
+  <si>
+    <t>2018_12_01_Techii_Forum/Education%20Forum.png</t>
+  </si>
+  <si>
+    <t>A Forum on 21st Century Education</t>
+  </si>
+  <si>
+    <t>2020_01_30_FI101/FI101_poster_small.jpg</t>
+  </si>
+  <si>
+    <t>2019_11_20_Investment_Banking/Flyer%20for%20IB.jpg</t>
+  </si>
+  <si>
+    <t>2019_10_22_Real_Estate_Panel/Real%20Estate%20Discussion%20Panel.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Every year (usually in the spring) the Harvard GSAS Business Club offers this Finance Skills Workshop. This program begins with an introduction to quantitative analysis in finance. Dr. Hladik discusses what it means to be a “quant”, as well as review the statistical and econometric background that is important for many quantitative roles. Finally she describes how statistical and econometric concepts can be applied to risk management and trading.
+                    &lt;/p&gt;
+                    &lt;p style="text-align: justify"&gt;Dr. Hladik also be discusses how one can leverage training from their PhD or graduate school degree to pursue a career in finance.&lt;/p&gt;
+                    &lt;p style="text-align: center"&gt; &lt;b&gt;Finance Skills Workshop&lt;/b&gt;&lt;/p&gt;
+                    &lt;p style="text-align: center"&gt; &lt;b&gt;Alumna Instructor: Karen Hladik, Ph.D. ’84, Business Economics &lt;/b&gt; &lt;/p&gt;
+                    &lt;p style="text-align: justify"&gt;
+                        Karen Hladik has had a long and successful career in the financial industry, focusing on quantitative modeling and portfolio analytics in equity markets. Karen has a unique perspective on how one can apply one’s Ph.D. in a variety of corporate, consulting, and financial positions. She is currently a member of the GSAS Alumni Association Council and a director of Harvard University’s Alumni Association.</t>
+  </si>
+  <si>
+    <t>Are you interested in pursuing a finance-related career and learning more about the common and esoteric vocabulary of options and risk management?&lt;/p&gt;
+                    &lt;p style="text-align: justify"&gt;
+                        Every year the Harvard GSAS Business Club offers the Jargon Jungle Workshop. This interactive program, led by Karen Hladik (PhD '84) will help you better understand how to effectively use the terminology in the stock market and financial industry.
+                    &lt;/p&gt;
+                    &lt;p style="text-align: justify"&gt;Dr. Hladik also be discusses how one can leverage training from their PhD or graduate school degree to pursue a career in finance.&lt;/p&gt;
+                    &lt;p style="text-align: center"&gt; &lt;b&gt;Jargon Jungle Workshop, Overview of Financial Asset Classes &amp; An Introduction to the Vocabulary of the Stock Market&lt;/b&gt;&lt;/p&gt;
+                    &lt;p style="text-align: center"&gt; &lt;b&gt;Alumna Instructor: Karen Hladik, Ph.D. ’84, Business Economics &lt;/b&gt; &lt;/p&gt;
+                    &lt;p style="text-align: justify"&gt; The financial industry is notorious for its own language, from commonplace stocks (“equities”) and bonds (“fixed income”) to the more esoteric vocabulary of options and risk management. This workshop will cover some of the basic terminology used in the stock market, including: &lt;/p&gt;
+                    &lt;ul style="text-align: left"&gt;
+                        &lt;li&gt;“Assets” and “asset classes”&lt;/li&gt;
+                        &lt;li&gt;Variations on “common stock”, including “options”, “futures”, and “shorting”&lt;/li&gt;
+                        &lt;li&gt;Portfolio “risk” and “return” measures&lt;/li&gt;
+                        &lt;li&gt;Trading terminology&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p style="text-align: justify"&gt;Included in this workshop is a glossary of financial terms. &lt;/p&gt;
+                    &lt;p style="text-align: justify"&gt;
+                        Karen Hladik has had a long and successful career in the financial industry, focusing on quantitative modeling and portfolio analytics in equity markets. Karen has a unique perspective on how one can apply one’s Ph.D. in a variety of corporate, consulting, and financial positions. She is currently a member of the GSAS Alumni Association Council and a director of Harvard University’s Alumni Association.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        In partnership with the Harvard Alumni for Education and Techii, we are hosting the following event:</t>
+  </si>
+  <si>
+    <t>2018_12_01_Techii_Forum/techii_forum_flyer_2.png</t>
+  </si>
+  <si>
+    <t>2019_11_12_Trinity_info_session/flyer.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       In partnership with the Harvard Big Data Club, we are hosting the following event:</t>
+  </si>
+  <si>
+    <t>2019_05_02_Cures_Within_Reach/CWR_event.png</t>
+  </si>
+  <si>
+    <t>2019_11_05_Entrepreneurship_Panel/bc56f351-dfd1-4b7e-bb4d-95f83b9c2b6f.jpg</t>
+  </si>
+  <si>
+    <t>2019_10_01_Bolt_VC/20191001_Bolt_poster.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +414,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF333333"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -129,10 +453,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -449,13 +778,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F93559-D15A-4E42-BCA3-FD003D2C531F}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -477,48 +812,619 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/UpcomingEvents.xlsx
+++ b/UpcomingEvents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kluthria/Projects/Gaurav/AutomatedHGBC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452466E5-7C50-2244-8622-88C2E43710DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD76501-F537-C64C-AC97-AA71689544D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="460" windowWidth="17520" windowHeight="20080" xr2:uid="{325CD728-A27A-3842-9E48-1023FEC86821}"/>
+    <workbookView xWindow="6480" yWindow="460" windowWidth="26320" windowHeight="20080" xr2:uid="{325CD728-A27A-3842-9E48-1023FEC86821}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -397,6 +397,33 @@
   </si>
   <si>
     <t>2019_10_01_Bolt_VC/20191001_Bolt_poster.jpg</t>
+  </si>
+  <si>
+    <t>Finance &amp; Investment Careers in Finance Part III: Asset Management</t>
+  </si>
+  <si>
+    <t>Apr. 20, 2020</t>
+  </si>
+  <si>
+    <t>2020_04_23_Assets/image.png</t>
+  </si>
+  <si>
+    <t>2020_04_07_StartUp/thumbnail.png</t>
+  </si>
+  <si>
+    <t>2020_04_07_StartUp/image.png</t>
+  </si>
+  <si>
+    <t>Entreprenuership Series: #3 Joining a Startup Incubator</t>
+  </si>
+  <si>
+    <t>Apr. 7, 2020</t>
+  </si>
+  <si>
+    <t>Zoom Webinar</t>
+  </si>
+  <si>
+    <t>2020_04_23_Assets/thumbnail.png</t>
   </si>
 </sst>
 </file>
@@ -778,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F93559-D15A-4E42-BCA3-FD003D2C531F}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,6 +817,7 @@
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -824,138 +852,137 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>39</v>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
+    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -967,16 +994,16 @@
         <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>19</v>
@@ -984,31 +1011,29 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>19</v>
@@ -1016,7 +1041,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -1034,13 +1059,13 @@
         <v>34</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>19</v>
@@ -1048,23 +1073,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>9</v>
@@ -1077,23 +1104,26 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -1106,23 +1136,27 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -1133,25 +1167,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>113</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -1162,25 +1196,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -1191,22 +1222,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>109</v>
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>18</v>
@@ -1220,25 +1251,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -1249,25 +1280,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -1278,25 +1309,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -1307,28 +1338,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -1339,25 +1367,25 @@
     </row>
     <row r="19" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -1368,62 +1396,123 @@
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>93</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>94</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G22" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="I22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>101</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>98</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>97</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>107</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>99</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>108</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/UpcomingEvents.xlsx
+++ b/UpcomingEvents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kluthria/Projects/Gaurav/AutomatedHGBC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD76501-F537-C64C-AC97-AA71689544D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15760BA-D702-A049-93E0-7400358DBFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="460" windowWidth="26320" windowHeight="20080" xr2:uid="{325CD728-A27A-3842-9E48-1023FEC86821}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>FI</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Upcoming (Y/N)</t>
@@ -808,7 +805,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,88 +843,88 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -936,584 +933,584 @@
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
         <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>61</v>
       </c>
-      <c r="G14" t="s">
-        <v>62</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
         <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" t="s">
-        <v>78</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" t="s">
-        <v>82</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
         <v>85</v>
       </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>110</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>86</v>
       </c>
-      <c r="F20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" t="s">
-        <v>87</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
         <v>90</v>
       </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>91</v>
-      </c>
-      <c r="G21" t="s">
-        <v>92</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
         <v>93</v>
       </c>
-      <c r="B22" t="s">
+      <c r="G22" t="s">
         <v>95</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" t="s">
-        <v>96</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>107</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>99</v>
       </c>
-      <c r="F23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/UpcomingEvents.xlsx
+++ b/UpcomingEvents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kluthria/Projects/Gaurav/AutomatedHGBC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15760BA-D702-A049-93E0-7400358DBFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D116FF0B-2C6B-1E49-A3CD-9ED581850FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="460" windowWidth="26320" windowHeight="20080" xr2:uid="{325CD728-A27A-3842-9E48-1023FEC86821}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -119,34 +119,13 @@
     <t>JC</t>
   </si>
   <si>
-    <t>Date: TDB</t>
-  </si>
-  <si>
-    <t>Finance &amp; Investment Personal Finance Part III: Stock Investing</t>
-  </si>
-  <si>
     <t>2020_03_16_Brand_Repo/unnamed.png</t>
   </si>
   <si>
-    <t>Random_Thumbnails/5.jpg</t>
-  </si>
-  <si>
-    <t>Finance &amp; Investment Careers in Finance Part IV: Asset Management</t>
-  </si>
-  <si>
     <t>2020_03_12_Hedge_Funds/F&amp;I%20careers%20in%20finance%20hedge%20funds.jpg</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Random_Thumbnails/20191001_173141.jpg</t>
-  </si>
-  <si>
-    <t>Finance &amp; Investment Careers in Finance Part IV: Startup Finance</t>
-  </si>
-  <si>
-    <t>Random_Thumbnails/Finance-5.jpg</t>
   </si>
   <si>
     <t>Venture Capital Site Visit: One Way Ventures</t>
@@ -802,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F93559-D15A-4E42-BCA3-FD003D2C531F}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,25 +830,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -883,25 +862,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>18</v>
@@ -910,67 +889,67 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -979,19 +958,19 @@
         <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
@@ -1008,7 +987,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
@@ -1021,10 +1000,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>9</v>
@@ -1038,25 +1017,23 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -1069,26 +1046,23 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>35</v>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>9</v>
@@ -1101,29 +1075,23 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>37</v>
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>18</v>
@@ -1133,27 +1101,23 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>46</v>
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>18</v>
@@ -1164,22 +1128,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -1193,19 +1157,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>17</v>
@@ -1219,25 +1186,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>112</v>
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>18</v>
@@ -1248,22 +1215,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>9</v>
@@ -1277,22 +1244,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>17</v>
@@ -1306,25 +1273,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>18</v>
@@ -1333,24 +1303,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -1364,25 +1334,25 @@
     </row>
     <row r="19" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>18</v>
@@ -1393,123 +1363,33 @@
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
